--- a/data/raw/ams_jena_results-co2-S19-1b_2020-10-05/14C_SierraNevada_2019_Inc_part2.xlsx
+++ b/data/raw/ams_jena_results-co2-S19-1b_2020-10-05/14C_SierraNevada_2019_Inc_part2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="16215" windowHeight="13740"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="16220" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,6 +63,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>‰)</t>
     </r>
@@ -71,6 +77,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>‰</t>
     </r>
@@ -630,64 +637,64 @@
     <t>single measurements of the respective sample, plus a contribution from the calibration by the standards</t>
   </si>
   <si>
-    <t>1_GRrf_comp_0-10</t>
-  </si>
-  <si>
-    <t>4_GRwf_comp_0-10</t>
-  </si>
-  <si>
-    <t>6_GRwf_comp_20-30</t>
-  </si>
-  <si>
-    <t>8_GRpp_comp_10-20</t>
-  </si>
-  <si>
-    <t>9_GRpp_comp_20-30</t>
-  </si>
-  <si>
-    <t>10_ANrf_comp_0-10</t>
-  </si>
-  <si>
-    <t>11_ANrf_comp_10-20</t>
-  </si>
-  <si>
-    <t>12_ANrf_comp_20-30</t>
-  </si>
-  <si>
-    <t>13_ANwf_comp_0-10</t>
-  </si>
-  <si>
     <t>Blank_42_13052020</t>
   </si>
   <si>
-    <t>14_ANwf_comp_10-20</t>
-  </si>
-  <si>
-    <t>15_ANwf_comp_20-30</t>
-  </si>
-  <si>
-    <t>17_ANpp_comp_10-20</t>
-  </si>
-  <si>
-    <t>18_ANpp_comp_20-30</t>
-  </si>
-  <si>
-    <t>19_BSrf_comp_0-10</t>
-  </si>
-  <si>
-    <t>20_BSrf_comp_10-20</t>
-  </si>
-  <si>
-    <t>21_BSrf_comp_20-30</t>
-  </si>
-  <si>
-    <t>22_BSwf_comp_0-10</t>
-  </si>
-  <si>
-    <t>26_BSpp_comp_10-20</t>
-  </si>
-  <si>
     <t>Blank_43_13052020</t>
+  </si>
+  <si>
+    <t>1_GRrf_comp_0-10_2019_a</t>
+  </si>
+  <si>
+    <t>4_GRwf_comp_0-10_2019_a</t>
+  </si>
+  <si>
+    <t>6_GRwf_comp_20-30_2019_a</t>
+  </si>
+  <si>
+    <t>8_GRpp_comp_10-20_2019_a</t>
+  </si>
+  <si>
+    <t>9_GRpp_comp_20-30_2019_a</t>
+  </si>
+  <si>
+    <t>10_ANrf_comp_0-10_2019_a</t>
+  </si>
+  <si>
+    <t>11_ANrf_comp_10-20_2019_a</t>
+  </si>
+  <si>
+    <t>12_ANrf_comp_20-30_2019_a</t>
+  </si>
+  <si>
+    <t>13_ANwf_comp_0-10_2019_a</t>
+  </si>
+  <si>
+    <t>14_ANwf_comp_10-20_2019_a</t>
+  </si>
+  <si>
+    <t>15_ANwf_comp_20-30_2019_a</t>
+  </si>
+  <si>
+    <t>17_ANpp_comp_10-20_2019_a</t>
+  </si>
+  <si>
+    <t>18_ANpp_comp_20-30_2019_a</t>
+  </si>
+  <si>
+    <t>19_BSrf_comp_0-10_2019_a</t>
+  </si>
+  <si>
+    <t>20_BSrf_comp_10-20_2019_a</t>
+  </si>
+  <si>
+    <t>21_BSrf_comp_20-30_2019_a</t>
+  </si>
+  <si>
+    <t>22_BSwf_comp_0-10_2019_a</t>
+  </si>
+  <si>
+    <t>26_BSpp_comp_10-20_2019_a</t>
   </si>
 </sst>
 </file>
@@ -698,7 +705,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -782,6 +789,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -801,29 +820,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,16 +850,18 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -906,7 +927,9 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1208,22 +1231,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1257,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1268,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +1279,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1290,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="21"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -1276,7 +1299,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1310,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
@@ -1298,7 +1321,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
@@ -1309,7 +1332,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1343,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
@@ -1331,7 +1354,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="21"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -1340,7 +1363,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="21" t="s">
         <v>7</v>
       </c>
@@ -1351,7 +1374,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1385,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1396,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="21"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -1382,7 +1405,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="21" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1416,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1427,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1438,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -1426,7 +1449,7 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="12"/>
       <c r="B20" s="22"/>
       <c r="C20" s="18"/>
@@ -1435,7 +1458,7 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
@@ -1446,7 +1469,7 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1457,7 +1480,7 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
@@ -1468,7 +1491,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1502,7 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="12"/>
       <c r="B25" s="22"/>
       <c r="C25" s="18"/>
@@ -1488,7 +1511,7 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
@@ -1497,7 +1520,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -1520,12 +1543,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="10">
         <v>23593</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" s="11">
         <v>1.0658000000000001</v>
@@ -1541,12 +1564,12 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="10">
         <v>23594</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11">
         <v>1.0804</v>
@@ -1562,12 +1585,12 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="10">
         <v>23595</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11">
         <v>1.0286999999999999</v>
@@ -1583,12 +1606,12 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="10">
         <v>23596</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" s="11">
         <v>1.0918000000000001</v>
@@ -1604,12 +1627,12 @@
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="10">
         <v>23597</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="11">
         <v>1.0505</v>
@@ -1625,12 +1648,12 @@
       </c>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="10">
         <v>23598</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="11">
         <v>1.0674999999999999</v>
@@ -1646,12 +1669,12 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="10">
         <v>23599</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" s="11">
         <v>1.0357000000000001</v>
@@ -1667,12 +1690,12 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="10">
         <v>23600</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" s="11">
         <v>1.0506</v>
@@ -1688,12 +1711,12 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="10">
         <v>23601</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="11">
         <v>1.0546</v>
@@ -1709,12 +1732,12 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="10">
         <v>23602</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C37" s="11">
         <v>4.1999999999999997E-3</v>
@@ -1730,12 +1753,12 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="10">
         <v>23603</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="11">
         <v>1.0747</v>
@@ -1751,12 +1774,12 @@
       </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="10">
         <v>23604</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="11">
         <v>1.0535000000000001</v>
@@ -1772,12 +1795,12 @@
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15">
       <c r="A40" s="10">
         <v>23605</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="11">
         <v>1.0515000000000001</v>
@@ -1793,12 +1816,12 @@
       </c>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="10">
         <v>23606</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="11">
         <v>1.036</v>
@@ -1814,12 +1837,12 @@
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15">
       <c r="A42" s="10">
         <v>23607</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="11">
         <v>1.0484</v>
@@ -1835,12 +1858,12 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="10">
         <v>23608</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="11">
         <v>1.0611999999999999</v>
@@ -1856,12 +1879,12 @@
       </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="10">
         <v>23609</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="11">
         <v>1.0548999999999999</v>
@@ -1877,12 +1900,12 @@
       </c>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="10">
         <v>23610</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="11">
         <v>1.0435000000000001</v>
@@ -1898,12 +1921,12 @@
       </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="10">
         <v>23611</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="11">
         <v>1.0689</v>
@@ -1919,12 +1942,12 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15">
       <c r="A47" s="10">
         <v>23612</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C47" s="11">
         <v>5.7000000000000002E-3</v>
@@ -1940,7 +1963,7 @@
       </c>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
@@ -1949,7 +1972,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
@@ -1958,7 +1981,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
@@ -1967,7 +1990,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
@@ -1976,7 +1999,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -1985,7 +2008,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
@@ -1994,7 +2017,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -2003,7 +2026,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
@@ -2012,7 +2035,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
@@ -2021,7 +2044,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
@@ -2030,7 +2053,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
@@ -2039,7 +2062,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
@@ -2048,7 +2071,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
@@ -2057,7 +2080,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
@@ -2066,7 +2089,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
@@ -2075,7 +2098,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
@@ -2084,7 +2107,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
@@ -2093,7 +2116,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
@@ -2105,7 +2128,12 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>